--- a/cmip6/models/noresm2-mh/cmip6_ncc_noresm2-mh_land.xlsx
+++ b/cmip6/models/noresm2-mh/cmip6_ncc_noresm2-mh_land.xlsx
@@ -48,7 +48,7 @@
     <t>NORESM2-MH</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/noresm2-mh/cmip6_ncc_noresm2-mh_land.xlsx
+++ b/cmip6/models/noresm2-mh/cmip6_ncc_noresm2-mh_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="839">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -231,120 +231,129 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -750,13 +759,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -771,10 +780,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -861,10 +870,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -972,7 +981,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1050,10 +1059,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1116,7 +1125,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1131,7 +1143,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>Diagnostic</t>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1182,10 +1194,10 @@
     <t>cmip6.land.snow.snow_cover_fractions</t>
   </si>
   <si>
-    <t>Ground snow fraction</t>
-  </si>
-  <si>
-    <t>Vegetation snow fraction</t>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
   </si>
   <si>
     <t>4.1.1.11 *</t>
@@ -1197,16 +1209,16 @@
     <t>cmip6.land.snow.processes</t>
   </si>
   <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow melting</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
   </si>
   <si>
     <t>4.1.1.12 *</t>
@@ -1239,7 +1251,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>Prescribed</t>
+    <t>prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1251,16 +1263,16 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -1332,10 +1344,10 @@
     <t>cmip6.land.vegetation.vegetation_representation</t>
   </si>
   <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t>Biome types</t>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1350,10 +1362,10 @@
     <t>cmip6.land.vegetation.vegetation_types</t>
   </si>
   <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
   </si>
   <si>
     <t>C3 grass</t>
@@ -1374,40 +1386,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1422,13 +1434,13 @@
     <t>cmip6.land.vegetation.vegetation_time_variation</t>
   </si>
   <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1467,7 +1479,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>Diagnostic (vegetation map)</t>
+    <t>diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1566,10 +1578,13 @@
     <t>cmip6.land.vegetation.stomatal_resistance</t>
   </si>
   <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Water availability</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
   </si>
   <si>
     <t>CO2</t>
@@ -1659,13 +1674,13 @@
     <t>cmip6.land.energy_balance.evaporation</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Combined</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1680,7 +1695,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1740,13 +1755,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1884,16 +1899,16 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_bins</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1908,16 +1923,16 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_fractions</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Function of plant allometry</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2229,10 +2244,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2271,10 +2286,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Tracers</t>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2289,10 +2304,10 @@
     <t>cmip6.land.river_routing.basin_flow_direction_map</t>
   </si>
   <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2337,10 +2352,10 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2481,10 +2496,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3187,20 +3202,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3211,10 +3226,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3222,7 +3237,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3233,10 +3248,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3249,7 +3264,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -3260,10 +3275,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3276,21 +3291,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3298,10 +3313,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3309,10 +3324,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3349,20 +3364,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3373,10 +3388,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3384,7 +3399,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3395,10 +3410,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3426,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -3422,10 +3437,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3438,21 +3453,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3460,21 +3475,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3482,10 +3497,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3493,10 +3508,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3504,21 +3519,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3526,10 +3541,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3537,10 +3552,10 @@
         <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3551,10 +3566,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>73</v>
@@ -3562,21 +3577,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3584,10 +3599,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3595,10 +3610,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +3626,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3622,10 +3637,10 @@
         <v>65</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3636,13 +3651,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>73</v>
@@ -3650,10 +3665,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3661,19 +3676,19 @@
         <v>65</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>73</v>
@@ -3681,10 +3696,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3692,10 +3707,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3708,10 +3723,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3719,10 +3734,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3735,23 +3750,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3759,19 +3774,19 @@
         <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>73</v>
@@ -3779,10 +3794,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3790,10 +3805,10 @@
         <v>65</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3804,13 +3819,13 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>73</v>
@@ -3866,20 +3881,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3890,10 +3905,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3901,7 +3916,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3912,10 +3927,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3928,21 +3943,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3950,21 +3965,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3972,10 +3987,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -3983,10 +3998,10 @@
         <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -3997,13 +4012,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>73</v>
@@ -4011,10 +4026,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4022,10 +4037,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4033,10 +4048,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4044,10 +4059,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4060,34 +4075,34 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4095,10 +4110,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -4106,19 +4121,19 @@
         <v>65</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>73</v>
@@ -4126,10 +4141,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4137,10 +4152,10 @@
         <v>65</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4151,13 +4166,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>73</v>
@@ -4165,21 +4180,21 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4187,21 +4202,21 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4209,20 +4224,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>60</v>
@@ -4233,10 +4248,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4687,7 +4702,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
@@ -4695,10 +4710,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4711,10 +4726,10 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -4722,10 +4737,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -4738,10 +4753,10 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -4749,10 +4764,10 @@
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -4765,34 +4780,34 @@
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
@@ -4800,21 +4815,21 @@
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -4822,10 +4837,10 @@
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -4833,10 +4848,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -4844,23 +4859,23 @@
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="A82" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
       <c r="B83" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
@@ -4868,10 +4883,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
@@ -4879,10 +4894,10 @@
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -4890,10 +4905,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -4901,10 +4916,10 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -4912,10 +4927,10 @@
         <v>46</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -4928,20 +4943,20 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>60</v>
@@ -4952,10 +4967,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5001,20 +5016,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5025,10 +5040,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5036,7 +5051,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -5047,10 +5062,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5063,20 +5078,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>60</v>
@@ -5087,10 +5102,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5103,21 +5118,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5125,20 +5140,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>60</v>
@@ -5149,10 +5164,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5165,21 +5180,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5214,20 +5229,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5238,10 +5253,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5249,7 +5264,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -5260,10 +5275,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5276,10 +5291,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5287,10 +5302,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5298,21 +5313,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5320,10 +5335,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5331,10 +5346,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5347,20 +5362,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>60</v>
@@ -5371,10 +5386,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5387,10 +5402,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5398,10 +5413,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5409,10 +5424,10 @@
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5420,10 +5435,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -5431,10 +5446,10 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5442,10 +5457,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5453,10 +5468,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5464,10 +5479,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -5475,10 +5490,10 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5486,10 +5501,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5497,21 +5512,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5519,10 +5534,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5530,10 +5545,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5541,34 +5556,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5576,10 +5591,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5587,10 +5602,10 @@
         <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5601,13 +5616,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>73</v>
@@ -5615,10 +5630,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5626,19 +5641,19 @@
         <v>65</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>73</v>
@@ -5646,21 +5661,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5668,20 +5683,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>60</v>
@@ -5692,10 +5707,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5708,21 +5723,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5730,7 +5745,7 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>93</v>
@@ -5741,10 +5756,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5757,10 +5772,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5768,10 +5783,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5784,21 +5799,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5806,10 +5821,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5817,10 +5832,10 @@
         <v>65</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5831,10 +5846,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>73</v>
@@ -5842,10 +5857,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -5853,25 +5868,25 @@
         <v>65</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11"/>
       <c r="AA118" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>73</v>
@@ -5879,34 +5894,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -5914,10 +5929,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -5925,10 +5940,10 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
@@ -5936,10 +5951,10 @@
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -5947,10 +5962,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -5963,20 +5978,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>60</v>
@@ -5987,10 +6002,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6003,10 +6018,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6014,10 +6029,10 @@
         <v>65</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6028,22 +6043,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>73</v>
@@ -6051,20 +6066,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>60</v>
@@ -6075,10 +6090,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6091,21 +6106,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6113,7 +6128,7 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>93</v>
@@ -6124,10 +6139,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6140,10 +6155,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6151,10 +6166,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6167,10 +6182,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6178,19 +6193,19 @@
         <v>65</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11"/>
       <c r="AA176" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>73</v>
@@ -6198,10 +6213,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6209,10 +6224,10 @@
         <v>65</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6223,10 +6238,10 @@
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>73</v>
@@ -6300,20 +6315,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6324,10 +6339,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6335,7 +6350,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -6346,10 +6361,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6362,7 +6377,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -6373,10 +6388,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6389,21 +6404,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6411,10 +6426,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6422,19 +6437,19 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>73</v>
@@ -6442,10 +6457,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6453,19 +6468,19 @@
         <v>65</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>73</v>
@@ -6473,10 +6488,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6484,19 +6499,19 @@
         <v>65</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>73</v>
@@ -6504,10 +6519,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6515,19 +6530,19 @@
         <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>73</v>
@@ -6535,10 +6550,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6546,19 +6561,19 @@
         <v>65</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>73</v>
@@ -6566,10 +6581,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6577,10 +6592,10 @@
         <v>65</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6591,10 +6606,10 @@
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>73</v>
@@ -6602,10 +6617,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -6613,10 +6628,10 @@
         <v>65</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6627,16 +6642,16 @@
     <row r="50" spans="1:31" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AE50" s="6" t="s">
         <v>73</v>
@@ -6644,10 +6659,10 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
@@ -6655,10 +6670,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
@@ -6671,23 +6686,23 @@
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
@@ -6695,22 +6710,22 @@
         <v>65</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>73</v>
@@ -6718,10 +6733,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6729,10 +6744,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -6743,19 +6758,19 @@
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AD68" s="6" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AE68" s="6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AF68" s="6" t="s">
         <v>73</v>
@@ -6814,20 +6829,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6838,10 +6853,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6849,7 +6864,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -6860,10 +6875,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6876,21 +6891,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6898,21 +6913,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6920,7 +6935,7 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>93</v>
@@ -6931,10 +6946,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6947,10 +6962,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6958,19 +6973,19 @@
         <v>65</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>73</v>
@@ -6978,10 +6993,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6989,10 +7004,10 @@
         <v>65</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7003,16 +7018,16 @@
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>87</v>
@@ -7023,10 +7038,10 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
@@ -7034,10 +7049,10 @@
         <v>65</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
@@ -7048,40 +7063,40 @@
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11"/>
       <c r="AA38" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AE38" s="6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="AH38" s="6" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AL38" s="6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AM38" s="6" t="s">
         <v>73</v>
@@ -7089,10 +7104,10 @@
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
@@ -7100,22 +7115,22 @@
         <v>65</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AD42" s="6" t="s">
         <v>73</v>
@@ -7123,10 +7138,10 @@
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
@@ -7134,10 +7149,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
@@ -7145,21 +7160,21 @@
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -7167,10 +7182,10 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -7178,19 +7193,19 @@
         <v>65</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="B54" s="11"/>
       <c r="AA54" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>73</v>
@@ -7198,10 +7213,10 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
@@ -7209,10 +7224,10 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -7225,10 +7240,10 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
@@ -7236,22 +7251,22 @@
         <v>65</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>73</v>
@@ -7259,10 +7274,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -7270,10 +7285,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -7286,10 +7301,10 @@
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -7297,19 +7312,19 @@
         <v>65</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>73</v>
@@ -7317,10 +7332,10 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -7328,10 +7343,10 @@
         <v>46</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -7344,10 +7359,10 @@
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -7355,19 +7370,19 @@
         <v>65</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="B81" s="11"/>
       <c r="AA81" s="6" t="s">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AB81" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AC81" s="6" t="s">
         <v>73</v>
@@ -7375,10 +7390,10 @@
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
@@ -7386,10 +7401,10 @@
         <v>46</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
@@ -7402,10 +7417,10 @@
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
@@ -7413,10 +7428,10 @@
         <v>65</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
@@ -7427,19 +7442,19 @@
     <row r="91" spans="1:32" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>374</v>
+        <v>518</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AF91" s="6" t="s">
         <v>73</v>
@@ -7447,10 +7462,10 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
@@ -7458,10 +7473,10 @@
         <v>46</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
@@ -7474,10 +7489,10 @@
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7485,10 +7500,10 @@
         <v>46</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
@@ -7558,20 +7573,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7582,10 +7597,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7593,7 +7608,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7604,10 +7619,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7620,7 +7635,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -7631,10 +7646,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7647,21 +7662,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -7669,10 +7684,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -7680,10 +7695,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -7694,16 +7709,16 @@
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>73</v>
@@ -7711,10 +7726,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -7722,10 +7737,10 @@
         <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -7736,7 +7751,7 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>73</v>
@@ -7774,20 +7789,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7798,10 +7813,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7809,7 +7824,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7820,10 +7835,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7836,7 +7851,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -7847,10 +7862,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7863,21 +7878,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -7885,10 +7900,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -7896,10 +7911,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7910,13 +7925,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>73</v>
@@ -7924,10 +7939,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -7935,10 +7950,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -7951,34 +7966,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -7986,10 +8001,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -7997,10 +8012,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8013,10 +8028,10 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8024,10 +8039,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8040,23 +8055,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8064,10 +8079,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8080,23 +8095,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8104,10 +8119,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8120,10 +8135,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8131,10 +8146,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8147,23 +8162,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8171,10 +8186,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8187,10 +8202,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8198,25 +8213,25 @@
         <v>65</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>73</v>
@@ -8224,10 +8239,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8235,25 +8250,25 @@
         <v>65</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>73</v>
@@ -8261,23 +8276,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8285,10 +8300,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8296,23 +8311,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8320,10 +8335,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8331,34 +8346,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8366,10 +8381,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8377,10 +8392,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8393,10 +8408,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8404,10 +8419,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8420,10 +8435,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8431,10 +8446,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8447,34 +8462,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8482,10 +8497,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8493,10 +8508,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8509,10 +8524,10 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8520,10 +8535,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8536,10 +8551,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8547,10 +8562,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8563,34 +8578,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -8598,10 +8613,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8609,10 +8624,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8640,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8636,10 +8651,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -8652,10 +8667,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8663,10 +8678,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
